--- a/biology/Mycologie/Mycetozoa/Mycetozoa.xlsx
+++ b/biology/Mycologie/Mycetozoa/Mycetozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mycétozoaires (Mycetozoa) sont des Eucaryotes qui peuvent former des masses importantes (plasmode ou pseudoplasmode) par assemblage de plusieurs cellules ou par multiplications successives du noyau sans division de cytoplasme. La phase unicellulaire et la phase pluricellulaire alternent au cours d'un cycle de vie. 
 Ce groupe rassemble une partie des organismes appelés myxomycètes et qui étaient historiquement rapprochés des champignons (division des Myxomycota du règne des Fungi) avec qui ils ne partagent qu'une ressemblance superficielle. Le terme de protistes fongoïdes est parfois utilisé pour les désigner, et le groupe le plus proche semble être celui des archéamibes. 
@@ -513,7 +525,9 @@
           <t>Caractéristiques spécifiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le cycle de vie des mycétozoaires est caractérisé par une alternance de formes unicellulaires, amiboïdes (la myxamibe) ou flagellées (le myxoflagellé), et de phases pluricellulaires, ou plurinucléées. Ce dernier stade est formé par association de cellules en un syncytium, ou par division de cellules sans séparation de celles-ci, formant alors un plasmode. La phase pluricellulaire produit un sporocarpe disséminant des spores haploïdes. Les spores en germant forment des cellules amiboïdes ou flagellées se comportant comme des gamètes. Le zygote (diploïde), formé par la fusion des deux gamètes, germe et est à l'origine d'une masse pluricellulaire.
 Les gènes des cytochrome oxydase cox1 et cox2 sont fusionnés dans le génome mitochondrial.
@@ -546,9 +560,11 @@
           <t>Différences avec les Fungi</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Chabasse et al. (1999)[1] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Chabasse et al. (1999) : 
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mycétozoaires affectionnent les milieux humides et riches en matière organique en décomposition. Hétérotrophes, ils absorbent par phagocytose les bactéries et les particules en décomposition. En général, ils se multiplient par simple mitose, mais lorsque les conditions environnementales deviennent défavorables, ils forment des amas cellulaires qui produisent des spores haploïdes dans un organe bien différencié, le sporocarpe. Au sein d'une masse plurinucléée, le flux de protoplasme (= cytoplasme) assure une distribution équitable des ressources alimentaires. L'agent de communication à l'origine des regroupements de cellules est l'AMP cyclique (anciennement l'acrasine).
 </t>
@@ -608,14 +626,16 @@
           <t>Liste des classes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (1 juillet 2013)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 juillet 2013) :
 classe des Dictyosteliomycetes
 classe des Myxomycetes
 incertae sedis
 classe des Protosteliomycetes
-Selon NCBI  (1 juillet 2013)[3] :
+Selon NCBI  (1 juillet 2013) :
 non-classé Myxogastria
 sous-classe des Myxogastromycetidae</t>
         </is>
